--- a/biology/Médecine/Coronarographie/Coronarographie.xlsx
+++ b/biology/Médecine/Coronarographie/Coronarographie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La coronarographie est une technique d'imagerie médicale utilisée en cardiologie pour visualiser les artères coronaires (gauche et droite) en cas de suspicion de maladie coronarienne. C'est un examen médical complémentaire invasif qui utilise la technique de radiographie aux rayons X et l'injection d'un produit de contraste iodé.
 Le coronarographiste est le médecin pratiquant l'examen.
@@ -512,13 +524,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première insertion d'un cathéter souple dans le cœur à travers une veine périphérique (veine basilique du bras) a été faite par le Dr Werner Forssmann sur lui-même en 1929[1]. Il utilisa dans ce but une sonde urinaire et il contrôla la position de son extrémité dans les cavités droites de son cœur par radioscopie. Anecdotiquement, il devint par la suite, non pas cardiologue, mais urologue et sa méthode fut oubliée pendant des décennies.
-En 1945, Radner propose de ponctionner l'aorte ascendante à travers le sternum pour injecter du contraste[2].
-En 1941, Le Dr Cournand conçoit la première sonde intra artérielle. Il recevra le Prix Nobel de médecine et de physiologie en 1956 pour ces travaux. Le matériel est peu à peu amélioré par Judkins et Sones entre autres. En 1958, Sones fait la première injection « sélective » de manière accidentelle : il voulait visualiser une fuite de la valve aortique chez un jeune homme mais l'injection du produit de contraste a été faite, par erreur, à la naissance de la coronaire droite[3]. Sones complète son expérimentation mais ne publie ses premiers résultats qu'en 1962[4].
-En 1953, le Dr Sven-Ivar Seldinger (1921-1998) propose sa méthode de ponction de vaisseaux qui porte son nom : la technique de Seldinger (utilisation d'un long guide métallique flexible pour introduire un cathéter). Elle sera utilisée dans le cadre de la coronarographie à partir de 1967 sous l'impulsion de Melvin P. Judkins[3].
-Dans les années 1960, l'utilité de la technique est encore contestée, l'examen de référence restant la description de l'angine de poitrine par le patient, couplée à l'électrocardiogramme. La publication de Sones de 1966 permet d'inverser les choses, la coronarographie devenant l'examen de référence[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première insertion d'un cathéter souple dans le cœur à travers une veine périphérique (veine basilique du bras) a été faite par le Dr Werner Forssmann sur lui-même en 1929. Il utilisa dans ce but une sonde urinaire et il contrôla la position de son extrémité dans les cavités droites de son cœur par radioscopie. Anecdotiquement, il devint par la suite, non pas cardiologue, mais urologue et sa méthode fut oubliée pendant des décennies.
+En 1945, Radner propose de ponctionner l'aorte ascendante à travers le sternum pour injecter du contraste.
+En 1941, Le Dr Cournand conçoit la première sonde intra artérielle. Il recevra le Prix Nobel de médecine et de physiologie en 1956 pour ces travaux. Le matériel est peu à peu amélioré par Judkins et Sones entre autres. En 1958, Sones fait la première injection « sélective » de manière accidentelle : il voulait visualiser une fuite de la valve aortique chez un jeune homme mais l'injection du produit de contraste a été faite, par erreur, à la naissance de la coronaire droite. Sones complète son expérimentation mais ne publie ses premiers résultats qu'en 1962.
+En 1953, le Dr Sven-Ivar Seldinger (1921-1998) propose sa méthode de ponction de vaisseaux qui porte son nom : la technique de Seldinger (utilisation d'un long guide métallique flexible pour introduire un cathéter). Elle sera utilisée dans le cadre de la coronarographie à partir de 1967 sous l'impulsion de Melvin P. Judkins.
+Dans les années 1960, l'utilité de la technique est encore contestée, l'examen de référence restant la description de l'angine de poitrine par le patient, couplée à l'électrocardiogramme. La publication de Sones de 1966 permet d'inverser les choses, la coronarographie devenant l'examen de référence.
 Le Dr Andreas Gruentzig fait la première angioplastie d'une artère coronaire en 1976 chez le chien, puis en 1977 chez l'homme.
 À partir de la fin des années 1980, le film argentique (35 mm, visualisé par une « Tagarno ») fait place progressivement à l'enregistrement numérique des images.
 </t>
@@ -549,7 +563,9 @@
           <t>Matériels</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'examen se fait dans une salle de radiologie adaptée comprenant :
 un appareil de radioscopie permettant l'émission de rayons X avec un système de visualisation en temps réel (amplificateur de brillance), fixé sur un arceau mobile (ce qui permet de pratiquer plusieurs incidences) ;
@@ -588,14 +604,86 @@
           <t>Réalisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La voie (site de ponction) la plus utilisée est la voie fémorale. On peut utiliser la voie radiale (artère du poignet)[6] qui limite les risques d'hématome et autorise la déambulation juste après l'examen, ou la voie humérale. L'utilisation de la voie radiale diffère suivant les pays : en 2008, elle concerne plus de la moitié des procédures en France, moins du quart en Allemagne et seulement quelques pour cent aux États-Unis[7].
-Avant l'examen
-L'examen est expliqué au patient qui l'accepte en signant un formulaire (en France) stipulant qu'il a été informé sur la réalisation de cet examen et des risques de ce dernier (à l'exception d'un examen réalisé dans le cadre d'une urgence vitale où le patient arrive inconscient ou substantiellement désorienté).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La voie (site de ponction) la plus utilisée est la voie fémorale. On peut utiliser la voie radiale (artère du poignet) qui limite les risques d'hématome et autorise la déambulation juste après l'examen, ou la voie humérale. L'utilisation de la voie radiale diffère suivant les pays : en 2008, elle concerne plus de la moitié des procédures en France, moins du quart en Allemagne et seulement quelques pour cent aux États-Unis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coronarographie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coronarographie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Réalisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avant l'examen</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'examen est expliqué au patient qui l'accepte en signant un formulaire (en France) stipulant qu'il a été informé sur la réalisation de cet examen et des risques de ce dernier (à l'exception d'un examen réalisé dans le cadre d'une urgence vitale où le patient arrive inconscient ou substantiellement désorienté).
 Le patient est à jeun et a eu un contrôle de son ionogramme sanguin (fonction rénale), de son hémogramme et de son hémostase (recherche d'une anomalie de la coagulation). Il a été rasé soit au pubis et aux cuisses soit au bras. Une perfusion est mise en place.
-Pendant l'examen
-Le patient est mis torse nu sur la table d'examen. Un électrocardioscope de surveillance continu de son ECG est mis en place. Ses poignets ou aines sont badigeonnées avec un liquide antiseptique. Un champ stérile recouvre le patient.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Coronarographie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coronarographie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Réalisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pendant l'examen</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le patient est mis torse nu sur la table d'examen. Un électrocardioscope de surveillance continu de son ECG est mis en place. Ses poignets ou aines sont badigeonnées avec un liquide antiseptique. Un champ stérile recouvre le patient.
 Le coronarographiste est habillé de manière stérile (comme un chirurgien) avec gants et casaque au-dessus d'un tablier de plomb (radioprotection).
 Il pratique une anesthésie locale par injection sous la peau de la région du poignet ou de l'aine d'un produit le plus souvent à base de xylocaïne. L'artère radiale ou fémorale est ensuite repérée au doigt (pulsations) et ponctionnée. Le désilet est mis en place suivant la technique de Seldinger (ponction de l'artère avec une aiguille de moyen calibre, introduction dans cette dernière d'un guide métallique, sorte de filin assez rigide, puis introduction du désilet par ce filin et retrait de ce dernier).
 La sonde de coronarographie est ensuite montée à travers le désilet jusqu'à la coronaire (contrôle visuel par radioscopie) : la sonde va successivement dans l'artère fémorale, dans l'aorte abdominale puis thoracique, jusqu'à l'abouchement de la coronaire près de la racine de l'aorte ou par l'artère du bras. La sonde ne pénètre que très peu dans l'artère coronaire. Son bon positionnement est vérifié par l'injection d'une petite dose de produit de contraste. Une injection franche avec enregistrement de la scopie est faite, l'arceau étant positionné suivant des angles de rotation définis correspondant aux différentes incidences. On fait de même pour l'autre coronaire.
@@ -604,37 +692,74 @@
 comme alternatives aux pansements compressifs.
 La coronarographie simple dure moins de trente minutes.
 L'examen n'est pas douloureux[réf. nécessaire] (la seule partie désagréable pouvant être l'anesthésie locale[réf. nécessaire]). Il peut être inconfortable par l'allongement sur une table relativement dure. Chaque injection de produits de contraste peut être accompagnée d'une brève sensation de chaleur.
-Après l'examen
-Le patient peut manger quelques heures après la fin de l'examen (risque de nausées dues aux produits iodés). Le patient est en lit strict pendant 24 heures, pour les passages fémorales, aucun lit strict pour les autres techniques. Le pansement compressif est gardé plusieurs heures après la coronarographie. Il est alors enlevé si l'état local est satisfaisant. Un contrôle biologique de la fonction rénale peut être fait le lendemain. Le plus souvent, le patient peut rentrer à son domicile le lendemain de l'examen. Si un système de fermeture vasculaire a été utilisé en fin d'examen, le patient est informé que si un éventuel nouvel examen artériographique devait lui être pratiqué dans les 90 jours suivants, une autre voie devra être choisie, différente de celle utilisée initialement.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Coronarographie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coronarographie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Coronarographie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coronarographie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Réalisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Après l'examen</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le patient peut manger quelques heures après la fin de l'examen (risque de nausées dues aux produits iodés). Le patient est en lit strict pendant 24 heures, pour les passages fémorales, aucun lit strict pour les autres techniques. Le pansement compressif est gardé plusieurs heures après la coronarographie. Il est alors enlevé si l'état local est satisfaisant. Un contrôle biologique de la fonction rénale peut être fait le lendemain. Le plus souvent, le patient peut rentrer à son domicile le lendemain de l'examen. Si un système de fermeture vasculaire a été utilisé en fin d'examen, le patient est informé que si un éventuel nouvel examen artériographique devait lui être pratiqué dans les 90 jours suivants, une autre voie devra être choisie, différente de celle utilisée initialement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coronarographie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coronarographie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Indications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La coronarographie est l'examen de référence en cas de suspicion de maladie des artères coronaires : angor, infarctus du myocarde ou ischémie myocardique silencieuse.
 Elle doit être faite à partir d'un certain âge chez tout patient devant être opéré du cœur (ce qui permet la correction simultanée des lésions sur des artères coronaires).
@@ -644,31 +769,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Coronarographie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coronarographie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Coronarographie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coronarographie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Accidents et incidents</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont rares et le plus souvent bénins :
 dues à la ponction de l'artère :
@@ -684,31 +811,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Coronarographie</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coronarographie</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Coronarographie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coronarographie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Techniques complémentaires</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>La coronarographie peut être complétée par :
 un test de provocation d'un spasme coronarien (injection de méthylergométrine permettant de visualiser une réduction importante du calibre de l'artère, réversible après administration d'un dérivé nitré) ;
@@ -720,31 +849,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Coronarographie</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coronarographie</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Coronarographie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coronarographie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Techniques alternatives</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">La coronarographie, même si elle peut paraître lourde en moyens, reste irremplaçable car c'est l'examen le plus précis, et elle permet parfois de traiter une lésion par angioplastie dans un même temps.
 Seul le scanner coronaire multi-barrettes permet de visualiser de manière satisfaisante les gros troncs coronaires mais la visualisation des artères distales reste médiocre. De plus c'est un examen qui irradie sensiblement plus que la coronarographie et il ne permet pas de traiter les artères malades.
